--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema5a-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema5a-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema5a</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema5a</t>
-  </si>
-  <si>
-    <t>Met</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.143562333333333</v>
+        <v>0.9169710000000001</v>
       </c>
       <c r="H2">
-        <v>3.430687</v>
+        <v>2.750913</v>
       </c>
       <c r="I2">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607254</v>
       </c>
       <c r="J2">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607253</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N2">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O2">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P2">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q2">
-        <v>3.622502809169111</v>
+        <v>2.462492609544</v>
       </c>
       <c r="R2">
-        <v>32.602525282522</v>
+        <v>22.162433485896</v>
       </c>
       <c r="S2">
-        <v>0.002873829645014217</v>
+        <v>0.001324151931779263</v>
       </c>
       <c r="T2">
-        <v>0.002873829645014217</v>
+        <v>0.001324151931779262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.143562333333333</v>
+        <v>0.9169710000000001</v>
       </c>
       <c r="H3">
-        <v>3.430687</v>
+        <v>2.750913</v>
       </c>
       <c r="I3">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607254</v>
       </c>
       <c r="J3">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607253</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.826363</v>
       </c>
       <c r="O3">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P3">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q3">
-        <v>1.077374089042334</v>
+        <v>0.8638976354910002</v>
       </c>
       <c r="R3">
-        <v>9.696366801381</v>
+        <v>7.775078719419001</v>
       </c>
       <c r="S3">
-        <v>0.0008547100606859746</v>
+        <v>0.0004645421953598375</v>
       </c>
       <c r="T3">
-        <v>0.0008547100606859746</v>
+        <v>0.0004645421953598374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.143562333333333</v>
+        <v>0.9169710000000001</v>
       </c>
       <c r="H4">
-        <v>3.430687</v>
+        <v>2.750913</v>
       </c>
       <c r="I4">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607254</v>
       </c>
       <c r="J4">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607253</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N4">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O4">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P4">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q4">
-        <v>24.28092853415233</v>
+        <v>32.46070462717501</v>
       </c>
       <c r="R4">
-        <v>218.528356807371</v>
+        <v>292.146341644575</v>
       </c>
       <c r="S4">
-        <v>0.01926271859701435</v>
+        <v>0.01745503908210686</v>
       </c>
       <c r="T4">
-        <v>0.01926271859701435</v>
+        <v>0.01745503908210685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.143562333333333</v>
+        <v>0.9169710000000001</v>
       </c>
       <c r="H5">
-        <v>3.430687</v>
+        <v>2.750913</v>
       </c>
       <c r="I5">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607254</v>
       </c>
       <c r="J5">
-        <v>0.02429958330097579</v>
+        <v>0.01983441610607253</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N5">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O5">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P5">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q5">
-        <v>1.649162117083</v>
+        <v>1.098478379339</v>
       </c>
       <c r="R5">
-        <v>14.842459053747</v>
+        <v>9.886305414051002</v>
       </c>
       <c r="S5">
-        <v>0.001308324998261245</v>
+        <v>0.0005906828968265784</v>
       </c>
       <c r="T5">
-        <v>0.001308324998261245</v>
+        <v>0.0005906828968265783</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>120.491871</v>
       </c>
       <c r="I6">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100033</v>
       </c>
       <c r="J6">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100032</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N6">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O6">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P6">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q6">
-        <v>127.2287857153807</v>
+        <v>107.858860621048</v>
       </c>
       <c r="R6">
-        <v>1145.059071438426</v>
+        <v>970.7297455894321</v>
       </c>
       <c r="S6">
-        <v>0.1009340434912975</v>
+        <v>0.05799876032006381</v>
       </c>
       <c r="T6">
-        <v>0.1009340434912975</v>
+        <v>0.05799876032006381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>120.491871</v>
       </c>
       <c r="I7">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100033</v>
       </c>
       <c r="J7">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100032</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.826363</v>
       </c>
       <c r="O7">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P7">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q7">
         <v>37.83930733279701</v>
@@ -883,10 +883,10 @@
         <v>340.553765995173</v>
       </c>
       <c r="S7">
-        <v>0.03001894791759686</v>
+        <v>0.02034726589948658</v>
       </c>
       <c r="T7">
-        <v>0.03001894791759686</v>
+        <v>0.02034726589948658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>120.491871</v>
       </c>
       <c r="I8">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100033</v>
       </c>
       <c r="J8">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100032</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N8">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O8">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P8">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q8">
-        <v>852.789691597427</v>
+        <v>1421.801065503225</v>
       </c>
       <c r="R8">
-        <v>7675.107224376843</v>
+        <v>12796.20958952903</v>
       </c>
       <c r="S8">
-        <v>0.6765411721619473</v>
+        <v>0.7645426508876063</v>
       </c>
       <c r="T8">
-        <v>0.6765411721619472</v>
+        <v>0.7645426508876062</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>120.491871</v>
       </c>
       <c r="I9">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100033</v>
       </c>
       <c r="J9">
-        <v>0.8534448804146018</v>
+        <v>0.8687609920100032</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N9">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O9">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P9">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q9">
-        <v>57.92152681653901</v>
+        <v>48.11410436447967</v>
       </c>
       <c r="R9">
-        <v>521.2937413488511</v>
+        <v>433.026939280317</v>
       </c>
       <c r="S9">
-        <v>0.04595071684376021</v>
+        <v>0.02587231490284658</v>
       </c>
       <c r="T9">
-        <v>0.0459507168437602</v>
+        <v>0.02587231490284658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.751294333333334</v>
+        <v>5.150379999999999</v>
       </c>
       <c r="H10">
-        <v>17.253883</v>
+        <v>15.45114</v>
       </c>
       <c r="I10">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="J10">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N10">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O10">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P10">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q10">
-        <v>18.21857827209978</v>
+        <v>13.83116007632</v>
       </c>
       <c r="R10">
-        <v>163.967204448898</v>
+        <v>124.48044068688</v>
       </c>
       <c r="S10">
-        <v>0.01445329185000172</v>
+        <v>0.007437406010001709</v>
       </c>
       <c r="T10">
-        <v>0.01445329185000172</v>
+        <v>0.007437406010001708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.751294333333334</v>
+        <v>5.150379999999999</v>
       </c>
       <c r="H11">
-        <v>17.253883</v>
+        <v>15.45114</v>
       </c>
       <c r="I11">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="J11">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.826363</v>
       </c>
       <c r="O11">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P11">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q11">
-        <v>5.418415168614334</v>
+        <v>4.85228115598</v>
       </c>
       <c r="R11">
-        <v>48.76573651752901</v>
+        <v>43.67053040382</v>
       </c>
       <c r="S11">
-        <v>0.004298575587338252</v>
+        <v>0.002609208832272121</v>
       </c>
       <c r="T11">
-        <v>0.004298575587338252</v>
+        <v>0.002609208832272121</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.751294333333334</v>
+        <v>5.150379999999999</v>
       </c>
       <c r="H12">
-        <v>17.253883</v>
+        <v>15.45114</v>
       </c>
       <c r="I12">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="J12">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N12">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O12">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P12">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q12">
-        <v>122.1155704556043</v>
+        <v>182.3230657215</v>
       </c>
       <c r="R12">
-        <v>1099.040134100439</v>
+        <v>1640.9075914935</v>
       </c>
       <c r="S12">
-        <v>0.09687759126227774</v>
+        <v>0.09804026974430108</v>
       </c>
       <c r="T12">
-        <v>0.09687759126227773</v>
+        <v>0.09804026974430106</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.751294333333334</v>
+        <v>5.150379999999999</v>
       </c>
       <c r="H13">
-        <v>17.253883</v>
+        <v>15.45114</v>
       </c>
       <c r="I13">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="J13">
-        <v>0.1222093904876166</v>
+        <v>0.1114045918839242</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N13">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O13">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P13">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q13">
-        <v>8.294096843047003</v>
+        <v>6.169858234753333</v>
       </c>
       <c r="R13">
-        <v>74.64687158742302</v>
+        <v>55.52872411278</v>
       </c>
       <c r="S13">
-        <v>0.006579931787998944</v>
+        <v>0.003317707297349286</v>
       </c>
       <c r="T13">
-        <v>0.006579931787998943</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.002171666666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.006515000000000001</v>
-      </c>
-      <c r="I14">
-        <v>4.614579680567107E-05</v>
-      </c>
-      <c r="J14">
-        <v>4.614579680567108E-05</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>3.167735333333333</v>
-      </c>
-      <c r="N14">
-        <v>9.503206</v>
-      </c>
-      <c r="O14">
-        <v>0.1182666224938439</v>
-      </c>
-      <c r="P14">
-        <v>0.1182666224938439</v>
-      </c>
-      <c r="Q14">
-        <v>0.006879265232222223</v>
-      </c>
-      <c r="R14">
-        <v>0.06191338709000001</v>
-      </c>
-      <c r="S14">
-        <v>5.457507530493929E-06</v>
-      </c>
-      <c r="T14">
-        <v>5.457507530493929E-06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.002171666666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.006515000000000001</v>
-      </c>
-      <c r="I15">
-        <v>4.614579680567107E-05</v>
-      </c>
-      <c r="J15">
-        <v>4.614579680567108E-05</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.9421210000000001</v>
-      </c>
-      <c r="N15">
-        <v>2.826363</v>
-      </c>
-      <c r="O15">
-        <v>0.03517385669126484</v>
-      </c>
-      <c r="P15">
-        <v>0.03517385669126484</v>
-      </c>
-      <c r="Q15">
-        <v>0.002045972771666667</v>
-      </c>
-      <c r="R15">
-        <v>0.018413754945</v>
-      </c>
-      <c r="S15">
-        <v>1.623125643746901E-06</v>
-      </c>
-      <c r="T15">
-        <v>1.623125643746901E-06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.002171666666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.006515000000000001</v>
-      </c>
-      <c r="I16">
-        <v>4.614579680567107E-05</v>
-      </c>
-      <c r="J16">
-        <v>4.614579680567108E-05</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>21.232711</v>
-      </c>
-      <c r="N16">
-        <v>63.698133</v>
-      </c>
-      <c r="O16">
-        <v>0.7927180626278817</v>
-      </c>
-      <c r="P16">
-        <v>0.7927180626278816</v>
-      </c>
-      <c r="Q16">
-        <v>0.04611037072166667</v>
-      </c>
-      <c r="R16">
-        <v>0.414993336495</v>
-      </c>
-      <c r="S16">
-        <v>3.658060664221147E-05</v>
-      </c>
-      <c r="T16">
-        <v>3.658060664221147E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.002171666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.006515000000000001</v>
-      </c>
-      <c r="I17">
-        <v>4.614579680567107E-05</v>
-      </c>
-      <c r="J17">
-        <v>4.614579680567108E-05</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.442127</v>
-      </c>
-      <c r="N17">
-        <v>4.326381</v>
-      </c>
-      <c r="O17">
-        <v>0.05384145818700962</v>
-      </c>
-      <c r="P17">
-        <v>0.05384145818700962</v>
-      </c>
-      <c r="Q17">
-        <v>0.003131819135</v>
-      </c>
-      <c r="R17">
-        <v>0.02818637221500001</v>
-      </c>
-      <c r="S17">
-        <v>2.484556989218781E-06</v>
-      </c>
-      <c r="T17">
-        <v>2.484556989218781E-06</v>
+        <v>0.003317707297349286</v>
       </c>
     </row>
   </sheetData>
